--- a/Backend/controllers/excel/ReporteSemanalGersa.xlsx
+++ b/Backend/controllers/excel/ReporteSemanalGersa.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Reporte empleados Periodo:2022-05-02 a 2022-05-02</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Fin Hora Extra</t>
   </si>
   <si>
-    <t/>
+    <t>1001</t>
   </si>
   <si>
     <t>Admin Master</t>
@@ -64,7 +64,7 @@
     <t>No tiene registro</t>
   </si>
   <si>
-    <t>333385</t>
+    <t>1002</t>
   </si>
   <si>
     <t>Ivan Santana Santana</t>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>2022-05-08</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>Ivan Arrieta Arrieta</t>
   </si>
 </sst>
 </file>
@@ -554,10 +560,10 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>

--- a/Backend/controllers/excel/ReporteSemanalGersa.xlsx
+++ b/Backend/controllers/excel/ReporteSemanalGersa.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Reporte empleados Periodo:2022-05-02 a 2022-05-02</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>Reporte empleados Periodo:2022-08-01 a 2022-08-01</t>
   </si>
   <si>
     <t>Numero Empleado</t>
@@ -55,7 +55,7 @@
     <t>Fin Hora Extra</t>
   </si>
   <si>
-    <t>1001</t>
+    <t/>
   </si>
   <si>
     <t>Admin Master</t>
@@ -64,19 +64,19 @@
     <t>No tiene registro</t>
   </si>
   <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>Ivan Santana Santana</t>
-  </si>
-  <si>
-    <t>Ingram</t>
-  </si>
-  <si>
-    <t>Ingram matutito</t>
-  </si>
-  <si>
-    <t>2022-05-02</t>
+    <t>G00113</t>
+  </si>
+  <si>
+    <t>Ruben14 Martinez Dorantes13</t>
+  </si>
+  <si>
+    <t>Adidas</t>
+  </si>
+  <si>
+    <t>ulfix Software Factory</t>
+  </si>
+  <si>
+    <t>2022-08-01</t>
   </si>
   <si>
     <t>No hay registro</t>
@@ -85,31 +85,43 @@
     <t>No hay horas extra</t>
   </si>
   <si>
-    <t>2022-05-03</t>
-  </si>
-  <si>
-    <t>2022-05-04</t>
-  </si>
-  <si>
-    <t>2022-05-05</t>
-  </si>
-  <si>
-    <t>2022-05-06</t>
-  </si>
-  <si>
-    <t>2022-05-07</t>
+    <t>2022-08-02</t>
+  </si>
+  <si>
+    <t>2022-08-03</t>
+  </si>
+  <si>
+    <t>2022-08-04</t>
+  </si>
+  <si>
+    <t>2022-08-05</t>
+  </si>
+  <si>
+    <t>2022-08-06</t>
   </si>
   <si>
     <t>Descanso</t>
   </si>
   <si>
-    <t>2022-05-08</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>Ivan Arrieta Arrieta</t>
+    <t>2022-08-07</t>
+  </si>
+  <si>
+    <t>G00213</t>
+  </si>
+  <si>
+    <t>Miguel14 Julian Castellanos13</t>
+  </si>
+  <si>
+    <t>Argo</t>
+  </si>
+  <si>
+    <t>G00313</t>
+  </si>
+  <si>
+    <t>Ivan14 Ojendis Santana13</t>
+  </si>
+  <si>
+    <t>PH</t>
   </si>
 </sst>
 </file>
@@ -163,7 +175,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -566,37 +578,570 @@
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
